--- a/mf-intelligence/data/separated_files/nippon/Nippon India Value Fund/Nippon India Value Fund_Jan_2026.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Value Fund/Nippon India Value Fund_Jan_2026.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2719,68 +2719,36 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BTVL03</t>
+          <t>IINL01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>IN9397D01014</t>
+          <t>INE549I01011</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited- Partly Paid up</t>
+          <t>Innoventive Industries Limited**</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Telecom - Services</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>194089</v>
+        <v>3000000</v>
       </c>
       <c r="F72" t="n">
-        <v>3035.75</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.0034</v>
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>$0.00%</t>
+        </is>
       </c>
       <c r="H72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>IINL01</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>INE549I01011</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Innoventive Industries Limited**</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
